--- a/flows/LEMB_fund_flow_data.xlsx
+++ b/flows/LEMB_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3108"/>
+  <dimension ref="A1:B3126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31515,6 +31515,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3109">
+      <c r="A3109" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B3109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3110">
+      <c r="A3110" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B3110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3111">
+      <c r="A3111" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B3111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3112">
+      <c r="A3112" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B3112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3113">
+      <c r="A3113" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B3113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3114">
+      <c r="A3114" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B3114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3115">
+      <c r="A3115" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3116">
+      <c r="A3116" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3117">
+      <c r="A3117" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3118">
+      <c r="A3118" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3119">
+      <c r="A3119" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3120">
+      <c r="A3120" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3121">
+      <c r="A3121" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3122">
+      <c r="A3122" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3123">
+      <c r="A3123" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3124">
+      <c r="A3124" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3125">
+      <c r="A3125" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3126">
+      <c r="A3126" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B3126" t="n">
+        <v>-29.08304</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
